--- a/files/generatedTemplates/GeneratedASNConversionTemplate.xlsx.xlsx
+++ b/files/generatedTemplates/GeneratedASNConversionTemplate.xlsx.xlsx
@@ -377,7 +377,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:IQ6"/>
+  <dimension ref="A1:IS6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1136,6 +1136,12 @@
       <c r="IQ1" t="str">
         <v>Check Items Flag</v>
       </c>
+      <c r="IR1" t="str">
+        <v>Date Converted</v>
+      </c>
+      <c r="IS1" t="str">
+        <v>Conversion Type</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
@@ -1956,6 +1962,9 @@
       <c r="GV3" t="str">
         <v>0</v>
       </c>
+      <c r="IR3" t="str">
+        <v>11/9/2021, 5:08:30 PM</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -2021,6 +2030,9 @@
       <c r="GV4" t="str">
         <v>0</v>
       </c>
+      <c r="IR4" t="str">
+        <v>11/9/2021, 5:08:30 PM</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -2086,6 +2098,9 @@
       <c r="GV5" t="str">
         <v>0</v>
       </c>
+      <c r="IR5" t="str">
+        <v>11/9/2021, 5:08:30 PM</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -2151,10 +2166,13 @@
       <c r="GV6" t="str">
         <v>0</v>
       </c>
+      <c r="IR6" t="str">
+        <v>11/9/2021, 5:08:30 PM</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:IQ6"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:IS6"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/files/generatedTemplates/GeneratedASNConversionTemplate.xlsx.xlsx
+++ b/files/generatedTemplates/GeneratedASNConversionTemplate.xlsx.xlsx
@@ -377,7 +377,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:IQ6"/>
+  <dimension ref="A1:IQ7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1905,14 +1905,8 @@
       <c r="D3" t="str">
         <v>CIC</v>
       </c>
-      <c r="H3">
-        <v>8</v>
-      </c>
-      <c r="I3">
-        <v>13</v>
-      </c>
-      <c r="S3">
-        <v>10</v>
+      <c r="H3" t="str">
+        <v>kevtest-001</v>
       </c>
       <c r="EZ3" t="str">
         <v>ZEU-CIC</v>
@@ -1924,19 +1918,16 @@
         <v>CIC</v>
       </c>
       <c r="FC3">
-        <v>2</v>
-      </c>
-      <c r="FD3">
-        <v>3</v>
+        <v>2001000457</v>
       </c>
       <c r="FG3" t="str">
         <v>00</v>
       </c>
       <c r="FI3">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="FJ3">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="FN3" t="str">
         <v>EA</v>
@@ -1970,14 +1961,8 @@
       <c r="D4" t="str">
         <v>CIC</v>
       </c>
-      <c r="H4">
-        <v>27</v>
-      </c>
-      <c r="I4">
-        <v>32</v>
-      </c>
-      <c r="S4">
-        <v>29</v>
+      <c r="H4" t="str">
+        <v>kevtest-002</v>
       </c>
       <c r="EZ4" t="str">
         <v>ZEU-CIC</v>
@@ -1989,19 +1974,16 @@
         <v>CIC</v>
       </c>
       <c r="FC4">
-        <v>21</v>
-      </c>
-      <c r="FD4">
-        <v>22</v>
+        <v>2001000459</v>
       </c>
       <c r="FG4" t="str">
         <v>00</v>
       </c>
       <c r="FI4">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="FJ4">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="FN4" t="str">
         <v>EA</v>
@@ -2035,14 +2017,8 @@
       <c r="D5" t="str">
         <v>CIC</v>
       </c>
-      <c r="H5">
-        <v>46</v>
-      </c>
-      <c r="I5">
-        <v>51</v>
-      </c>
-      <c r="S5">
-        <v>48</v>
+      <c r="H5" t="str">
+        <v>kevtest-003</v>
       </c>
       <c r="EZ5" t="str">
         <v>ZEU-CIC</v>
@@ -2054,19 +2030,16 @@
         <v>CIC</v>
       </c>
       <c r="FC5">
-        <v>40</v>
-      </c>
-      <c r="FD5">
-        <v>41</v>
+        <v>2000001651</v>
       </c>
       <c r="FG5" t="str">
         <v>00</v>
       </c>
       <c r="FI5">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="FJ5">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="FN5" t="str">
         <v>EA</v>
@@ -2100,14 +2073,8 @@
       <c r="D6" t="str">
         <v>CIC</v>
       </c>
-      <c r="H6">
-        <v>65</v>
-      </c>
-      <c r="I6">
-        <v>70</v>
-      </c>
-      <c r="S6">
-        <v>67</v>
+      <c r="H6" t="str">
+        <v>kevtest-004</v>
       </c>
       <c r="EZ6" t="str">
         <v>ZEU-CIC</v>
@@ -2119,19 +2086,16 @@
         <v>CIC</v>
       </c>
       <c r="FC6">
-        <v>59</v>
-      </c>
-      <c r="FD6">
-        <v>60</v>
+        <v>2000001829</v>
       </c>
       <c r="FG6" t="str">
         <v>00</v>
       </c>
       <c r="FI6">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="FJ6">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="FN6" t="str">
         <v>EA</v>
@@ -2149,12 +2113,68 @@
         <v>0</v>
       </c>
       <c r="GV6" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>ZEU-CIC</v>
+      </c>
+      <c r="B7" t="str">
+        <v>PO</v>
+      </c>
+      <c r="C7" t="str">
+        <v>00</v>
+      </c>
+      <c r="D7" t="str">
+        <v>CIC</v>
+      </c>
+      <c r="H7" t="str">
+        <v>kevtest-005</v>
+      </c>
+      <c r="EZ7" t="str">
+        <v>ZEU-CIC</v>
+      </c>
+      <c r="FA7">
+        <v>1</v>
+      </c>
+      <c r="FB7" t="str">
+        <v>CIC</v>
+      </c>
+      <c r="FC7">
+        <v>2000001830</v>
+      </c>
+      <c r="FG7" t="str">
+        <v>00</v>
+      </c>
+      <c r="FI7">
+        <v>20</v>
+      </c>
+      <c r="FJ7">
+        <v>20</v>
+      </c>
+      <c r="FN7" t="str">
+        <v>EA</v>
+      </c>
+      <c r="GB7" t="str">
+        <v>QC</v>
+      </c>
+      <c r="GS7" t="str">
+        <v>0</v>
+      </c>
+      <c r="GT7" t="str">
+        <v>0</v>
+      </c>
+      <c r="GU7" t="str">
+        <v>0</v>
+      </c>
+      <c r="GV7" t="str">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:IQ6"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:IQ7"/>
   </ignoredErrors>
 </worksheet>
 </file>